--- a/Estado de Resultados/Files/plantilla.xlsx
+++ b/Estado de Resultados/Files/plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gris8\OneDrive\Documentos\PRACTICAS PROFESIONALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gris8\OneDrive\Documentos\PRACTICAS PROFESIONALES\Dialogs\prueba\Estado-de-Resultados-Estad-a\Estado de Resultados\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F287F-EAE3-4AE5-8E18-1A8B061CD2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BBB52-D3A4-4A32-81C9-A3BF78F4FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DAF5CDE0-CF02-46E4-B639-F716AC9FA5E2}"/>
   </bookViews>
@@ -440,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,11 +462,12 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -907,7 +908,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,8 +931,8 @@
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="8">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12">
         <f>Tabla4[[#Totals],[INGRESOS]]</f>
         <v>936727</v>
       </c>
@@ -940,10 +941,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="12">
         <f>Tabla2[[#Totals],[GASTOS ADMINISTRATIVOS]]</f>
         <v>308316.28000000003</v>
       </c>
@@ -952,8 +953,8 @@
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="13">
         <f>C2-C3</f>
         <v>628410.72</v>
       </c>
@@ -962,10 +963,10 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <f>Tabla1[[#Totals],[GASTOS OPERACIONALES]]</f>
         <v>120422.22</v>
       </c>
@@ -977,7 +978,7 @@
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <f>C4-C5</f>
         <v>507988.5</v>
       </c>
@@ -986,10 +987,10 @@
       <c r="A7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <f>C6*0.3</f>
         <v>152396.54999999999</v>
       </c>
@@ -998,7 +999,7 @@
       <c r="A8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <f>C6-C7</f>
         <v>355591.95</v>
       </c>

--- a/Estado de Resultados/Files/plantilla.xlsx
+++ b/Estado de Resultados/Files/plantilla.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gris8\OneDrive\Documentos\PRACTICAS PROFESIONALES\Dialogs\prueba\Estado-de-Resultados-Estad-a\Estado de Resultados\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1BBB52-D3A4-4A32-81C9-A3BF78F4FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48CA60-D8E8-492B-A05D-593A70CC2FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DAF5CDE0-CF02-46E4-B639-F716AC9FA5E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Estado de Resultados" sheetId="1" r:id="rId1"/>
+    <sheet name="Ingresos" sheetId="4" r:id="rId2"/>
+    <sheet name="Gastos" sheetId="2" r:id="rId3"/>
+    <sheet name="Nómina" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>CONCEPTO</t>
   </si>
   <si>
-    <t>Gastos Administrativos</t>
-  </si>
-  <si>
-    <t>Gastos Operacionales</t>
-  </si>
-  <si>
     <t>Agosto</t>
   </si>
   <si>
@@ -342,30 +338,31 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Ingresos Netos de la Empresa</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>UTILIDAD BRUTA</t>
   </si>
   <si>
-    <t>UTILIDAD DE OPERACIÓN (antes de impuestos)</t>
-  </si>
-  <si>
     <t>IMPUESTOS</t>
   </si>
   <si>
     <t>UTILIDAD DESP IMPUESTOS</t>
+  </si>
+  <si>
+    <t>INGRESOS NETOS DE LA EMPRESA</t>
+  </si>
+  <si>
+    <t>UTILIDAD DE OPERACIÓN (AI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -465,51 +462,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -548,6 +509,42 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -562,11 +559,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D1AE5E9-C284-4706-8134-9335D50CCD90}" name="Tabla1" displayName="Tabla1" ref="D1:E32" totalsRowCount="1">
-  <autoFilter ref="D1:E31" xr:uid="{1D1AE5E9-C284-4706-8134-9335D50CCD90}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16CA286C-1937-4183-A448-E97EC62DB615}" name="Tabla4" displayName="Tabla4" ref="A1:B36" totalsRowCount="1">
+  <autoFilter ref="A1:B35" xr:uid="{16CA286C-1937-4183-A448-E97EC62DB615}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{288530A0-6EB9-4C3E-BF76-DA9F29225C63}" name="CONCEPTO" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{7B9540E5-FF1E-42D1-BB21-9A8DB676B053}" name="GASTOS OPERACIONALES" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{245F5B61-3BD4-4533-BCED-3E7F249F3CA7}" name="CONCEPTO" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{17FC7DA0-5407-4160-BC9D-0238315CC1A7}" name="INGRESOS" totalsRowFunction="sum" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,25 +581,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DC3A79A-F565-4CA8-91EC-1447994DF5EF}" name="Tabla3" displayName="Tabla3" ref="J1:K30" totalsRowCount="1">
-  <autoFilter ref="J1:K29" xr:uid="{0DC3A79A-F565-4CA8-91EC-1447994DF5EF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K27">
-    <sortCondition ref="J1:J27"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D1AE5E9-C284-4706-8134-9335D50CCD90}" name="Tabla1" displayName="Tabla1" ref="D1:E32" totalsRowCount="1">
+  <autoFilter ref="D1:E31" xr:uid="{1D1AE5E9-C284-4706-8134-9335D50CCD90}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5C38D5FC-6C98-4FE0-8400-2C8DDBEAD347}" name="EMPLEADO" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{A7AF3E0F-4340-407E-9FC6-F87643059DDF}" name="NÓMINA" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{288530A0-6EB9-4C3E-BF76-DA9F29225C63}" name="CONCEPTO" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{7B9540E5-FF1E-42D1-BB21-9A8DB676B053}" name="GASTOS OPERACIONALES" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16CA286C-1937-4183-A448-E97EC62DB615}" name="Tabla4" displayName="Tabla4" ref="G1:H36" totalsRowCount="1">
-  <autoFilter ref="G1:H35" xr:uid="{16CA286C-1937-4183-A448-E97EC62DB615}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0DC3A79A-F565-4CA8-91EC-1447994DF5EF}" name="Tabla3" displayName="Tabla3" ref="A1:B30" totalsRowCount="1">
+  <autoFilter ref="A1:B29" xr:uid="{0DC3A79A-F565-4CA8-91EC-1447994DF5EF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
+    <sortCondition ref="A1:A27"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{245F5B61-3BD4-4533-BCED-3E7F249F3CA7}" name="CONCEPTO" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{17FC7DA0-5407-4160-BC9D-0238315CC1A7}" name="INGRESOS" totalsRowFunction="sum" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{5C38D5FC-6C98-4FE0-8400-2C8DDBEAD347}" name="EMPLEADO" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{A7AF3E0F-4340-407E-9FC6-F87643059DDF}" name="NÓMINA" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -908,7 +905,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,12 +921,12 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12">
@@ -939,10 +936,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12">
         <f>Tabla2[[#Totals],[GASTOS ADMINISTRATIVOS]]</f>
@@ -951,7 +948,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="13">
@@ -961,10 +958,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="12">
         <f>Tabla1[[#Totals],[GASTOS OPERACIONALES]]</f>
@@ -976,7 +973,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="14">
         <f>C4-C5</f>
@@ -985,10 +982,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12">
         <f>C6*0.3</f>
@@ -997,7 +994,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="12">
         <f>C6-C7</f>
@@ -1010,11 +1007,323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFB07B0-ED12-445A-AE8C-7102DF65580B}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5">
+        <v>87054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5">
+        <f>10000+50000</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5">
+        <v>59684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="5">
+        <v>19186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="5">
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="8">
+        <f>SUBTOTAL(109,Tabla4[INGRESOS])</f>
+        <v>936727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D79F8A5-7235-4131-BF66-4906308BF385}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,762 +1339,616 @@
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="5">
         <f>Tabla3[[#Totals],[NÓMINA]]</f>
         <v>283779</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
         <v>4941.22</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5">
-        <v>4600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5">
-        <f>3000+2500</f>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5">
         <f>10000</f>
         <v>10000</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7">
         <v>16680</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5">
-        <v>87054</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5">
         <f>1112+1092</f>
         <v>2204</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
         <v>7300</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="5">
-        <f>2500</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5">
         <f>1168.77+1137.51</f>
         <v>2306.2799999999997</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7">
         <v>4400</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="5">
-        <v>17000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="5">
-        <f>2682+7000</f>
-        <v>9682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>5267</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7">
         <v>1900</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="5">
-        <f>2000+2000+1000+1800+1500+1800</f>
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5">
         <f>500+1000+600</f>
         <v>2100</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7">
         <v>1900</v>
       </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="5">
-        <f>5000+2500</f>
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>1500</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7">
         <v>500</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="5">
-        <v>50000</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="5">
-        <f>2700+2300+2700+2700+2700+2700</f>
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>1160</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7">
         <f>5000+3500</f>
         <v>8500</v>
       </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="5">
-        <v>37000</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="5">
-        <f>2000+2000+2000+2000+2000+2000</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="8">
         <f>SUBTOTAL(109,Tabla2[GASTOS ADMINISTRATIVOS])</f>
         <v>308316.28000000003</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7">
         <v>1670</v>
       </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5">
-        <v>26000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="5">
-        <f>2700+2500+3000+2700+2500+200+2700</f>
-        <v>16300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7">
         <v>1700</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
         <v>4000</v>
       </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="5">
-        <v>4200</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="5">
-        <f>1000+1000+2500+1000+2500+3000+2500+2000+2000+1000+2000</f>
-        <v>20500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7">
         <v>250</v>
       </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="5">
-        <f>10000+50000</f>
-        <v>60000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="5">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7">
         <v>1500</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="5">
-        <v>59684</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="5">
-        <f>6000+8000</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="7">
         <v>850</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1400</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="5">
-        <f>18700+10000+13267+10000</f>
-        <v>51967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="7">
         <v>300</v>
       </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="5">
-        <v>40000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="5">
-        <f>12000+12000</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7">
         <v>900</v>
       </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="5">
-        <v>30000</v>
-      </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>65</v>
-      </c>
-      <c r="K17" s="5">
-        <f>600+2500+500+2000</f>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="7">
         <v>27960</v>
       </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="5">
-        <v>3000</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="5">
-        <f>1000+2000+1000+1500+10000</f>
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="7">
         <v>1771</v>
       </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="5">
-        <v>8000</v>
-      </c>
-      <c r="J19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="5">
-        <f>10000+5000</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="7">
         <v>857</v>
       </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="5">
-        <v>80000</v>
-      </c>
-      <c r="J20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7">
         <v>1521</v>
       </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="5">
-        <v>50000</v>
-      </c>
-      <c r="J21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="5">
-        <f>900+900+1000+1200+1200+1200</f>
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7">
         <v>20000</v>
       </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="5">
-        <f>2000+1500</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="7">
         <v>330</v>
       </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="5">
-        <v>45000</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7">
         <v>1282</v>
       </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="7">
         <v>900</v>
       </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2500</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="5">
-        <f>2500+5000+7500</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7">
         <v>660</v>
       </c>
-      <c r="G26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2500</v>
-      </c>
-      <c r="J26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="7">
         <v>1500</v>
       </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="5">
-        <v>4200</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="7">
         <v>1000</v>
       </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="7">
         <v>1500</v>
       </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="5">
-        <v>12000</v>
-      </c>
-      <c r="J29" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="7">
         <v>450</v>
       </c>
-      <c r="G30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="5">
-        <v>100000</v>
-      </c>
-      <c r="J30" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="9">
-        <f>SUBTOTAL(109,Tabla3[NÓMINA])</f>
-        <v>283779</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" s="7">
         <v>3400</v>
       </c>
-      <c r="G31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="5">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="10">
         <f>SUBTOTAL(109,Tabla1[GASTOS OPERACIONALES])</f>
         <v>120422.22</v>
       </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="5">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="5">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="5">
-        <v>19186</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="5">
-        <v>40200</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="8">
-        <f>SUBTOTAL(109,Tabla4[INGRESOS])</f>
-        <v>936727</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596A584B-EAA2-4045-A46B-BA00AF80C81B}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <f>3000+2500</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5">
+        <f>2682+7000</f>
+        <v>9682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <f>2000+2000+1000+1800+1500+1800</f>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <f>5000+2500</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <f>2700+2300+2700+2700+2700+2700</f>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <f>2000+2000+2000+2000+2000+2000</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
+        <f>2700+2500+3000+2700+2500+200+2700</f>
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <f>1000+1000+2500+1000+2500+3000+2500+2000+2000+1000+2000</f>
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5">
+        <f>6000+8000</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <f>18700+10000+13267+10000</f>
+        <v>51967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <f>12000+12000</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5">
+        <f>600+2500+500+2000</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <f>1000+2000+1000+1500+10000</f>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5">
+        <f>10000+5000</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5">
+        <f>900+900+1000+1200+1200+1200</f>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5">
+        <f>2000+1500</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5">
+        <f>2500+5000+7500</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="9">
+        <f>SUBTOTAL(109,Tabla3[NÓMINA])</f>
+        <v>283779</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>